--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Nrxn1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,40 +540,40 @@
         <v>0.421784</v>
       </c>
       <c r="I2">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J2">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01189366666666667</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N2">
-        <v>0.035681</v>
+        <v>0.019552</v>
       </c>
       <c r="O2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424763</v>
       </c>
       <c r="P2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424762</v>
       </c>
       <c r="Q2">
-        <v>0.001672186100444444</v>
+        <v>0.0009163023075555556</v>
       </c>
       <c r="R2">
-        <v>0.015049674904</v>
+        <v>0.008246720767999999</v>
       </c>
       <c r="S2">
-        <v>0.01352406924066708</v>
+        <v>0.002532116007861051</v>
       </c>
       <c r="T2">
-        <v>0.01352406924066708</v>
+        <v>0.002532116007861051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,45 +602,45 @@
         <v>0.421784</v>
       </c>
       <c r="I3">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J3">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3633713333333333</v>
+        <v>0.01189366666666667</v>
       </c>
       <c r="N3">
-        <v>1.090114</v>
+        <v>0.035681</v>
       </c>
       <c r="O3">
-        <v>0.9683059526823267</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="P3">
-        <v>0.9683059526823267</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="Q3">
-        <v>0.05108807148622222</v>
+        <v>0.001672186100444444</v>
       </c>
       <c r="R3">
-        <v>0.459792643376</v>
+        <v>0.015049674904</v>
       </c>
       <c r="S3">
-        <v>0.4131828484689487</v>
+        <v>0.004620930404894137</v>
       </c>
       <c r="T3">
-        <v>0.4131828484689486</v>
+        <v>0.004620930404894137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.188893</v>
+        <v>0.1405946666666667</v>
       </c>
       <c r="H4">
-        <v>0.566679</v>
+        <v>0.421784</v>
       </c>
       <c r="I4">
-        <v>0.5732930822903841</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J4">
-        <v>0.5732930822903841</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.01189366666666667</v>
+        <v>1.369130333333333</v>
       </c>
       <c r="N4">
-        <v>0.035681</v>
+        <v>4.107391</v>
       </c>
       <c r="O4">
-        <v>0.03169404731767329</v>
+        <v>0.9867312060853923</v>
       </c>
       <c r="P4">
-        <v>0.03169404731767329</v>
+        <v>0.9867312060853922</v>
       </c>
       <c r="Q4">
-        <v>0.002246630377666666</v>
+        <v>0.1924924228382222</v>
       </c>
       <c r="R4">
-        <v>0.020219673399</v>
+        <v>1.732431805544</v>
       </c>
       <c r="S4">
-        <v>0.0181699780770062</v>
+        <v>0.5319348660824679</v>
       </c>
       <c r="T4">
-        <v>0.0181699780770062</v>
+        <v>0.5319348660824678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -717,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.188893</v>
+        <v>0.1202063333333333</v>
       </c>
       <c r="H5">
-        <v>0.566679</v>
+        <v>0.360619</v>
       </c>
       <c r="I5">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="J5">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +738,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3633713333333333</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N5">
-        <v>1.090114</v>
+        <v>0.019552</v>
       </c>
       <c r="O5">
-        <v>0.9683059526823267</v>
+        <v>0.004697037253424763</v>
       </c>
       <c r="P5">
-        <v>0.9683059526823267</v>
+        <v>0.004697037253424762</v>
       </c>
       <c r="Q5">
-        <v>0.06863830126733333</v>
+        <v>0.0007834247431111112</v>
       </c>
       <c r="R5">
-        <v>0.6177447114060001</v>
+        <v>0.007050822688000001</v>
       </c>
       <c r="S5">
-        <v>0.5551231042133778</v>
+        <v>0.002164921245563712</v>
       </c>
       <c r="T5">
-        <v>0.5551231042133778</v>
+        <v>0.002164921245563711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1202063333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.360619</v>
+      </c>
+      <c r="I6">
+        <v>0.460912087504777</v>
+      </c>
+      <c r="J6">
+        <v>0.460912087504777</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01189366666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.035681</v>
+      </c>
+      <c r="O6">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="P6">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="Q6">
+        <v>0.001429694059888889</v>
+      </c>
+      <c r="R6">
+        <v>0.012867246539</v>
+      </c>
+      <c r="S6">
+        <v>0.003950826256288808</v>
+      </c>
+      <c r="T6">
+        <v>0.003950826256288809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1202063333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.360619</v>
+      </c>
+      <c r="I7">
+        <v>0.460912087504777</v>
+      </c>
+      <c r="J7">
+        <v>0.460912087504777</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.369130333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.107391</v>
+      </c>
+      <c r="O7">
+        <v>0.9867312060853923</v>
+      </c>
+      <c r="P7">
+        <v>0.9867312060853922</v>
+      </c>
+      <c r="Q7">
+        <v>0.1645781372254445</v>
+      </c>
+      <c r="R7">
+        <v>1.481203235029</v>
+      </c>
+      <c r="S7">
+        <v>0.4547963400029245</v>
+      </c>
+      <c r="T7">
+        <v>0.4547963400029245</v>
       </c>
     </row>
   </sheetData>
